--- a/data/trans_camb/P24_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_4_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,7 +704,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,52 +714,82 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,66</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,19</t>
+          <t>-2,28; 0,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,93</t>
+          <t>-1,33; 1,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,4</t>
+          <t>-1,44; 2,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,61</t>
+          <t>0,24; 4,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,86</t>
+          <t>0,45; 5,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,13</t>
+          <t>-1,72; 4,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,88</t>
+          <t>-2,27; 2,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,1</t>
+          <t>-0,99; 4,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,43</t>
+          <t>-0,45; 4,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,72</t>
+          <t>3,33; 10,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,15</t>
+          <t>0,23; 8,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,93</t>
+          <t>1,15; 8,26</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 1,4</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 2,71</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 3,22</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 6,98</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 5,95</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 5,52</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-23,98%</t>
+          <t>-27,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>158,07%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>65,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>106,6%</t>
+          <t>36,25%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-2,68%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>21,99%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>26,73%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>98,23%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>38,48%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>32,88%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 69,91</t>
+          <t>-67,5; 54,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 114,01</t>
+          <t>-44,41; 107,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 181,65</t>
+          <t>-44,02; 163,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,0; 397,42</t>
+          <t>0,57; 253,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 51,23</t>
+          <t>6,18; 175,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 76,68</t>
+          <t>-21,88; 89,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 88,12</t>
+          <t>-27,61; 56,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,78; 165,71</t>
+          <t>-12,68; 79,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 34,36</t>
+          <t>-5,47; 89,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 68,44</t>
+          <t>42,02; 187,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 76,03</t>
+          <t>1,48; 71,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,28; 170,04</t>
+          <t>7,45; 72,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-30,82; 34,16</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 70,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 80,44</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>44,5; 172,96</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 72,63</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 62,95</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,52</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,48</t>
+          <t>-0,33; 5,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,97</t>
+          <t>1,16; 6,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,98</t>
+          <t>1,39; 6,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,65</t>
+          <t>3,27; 11,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,09</t>
+          <t>-5,69; 4,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,78</t>
+          <t>-1,81; 7,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 6,54</t>
+          <t>-1,19; 5,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 14,16</t>
+          <t>-0,6; 4,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,37</t>
+          <t>0,95; 7,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,73</t>
+          <t>6,91; 15,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,5</t>
+          <t>-4,73; 9,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,43</t>
+          <t>-1,76; 12,57</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 4,13</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 4,9</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 6,03</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 11,56</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 4,97</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 7,96</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>70,95%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>175,68%</t>
+          <t>180,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>185,18%</t>
+          <t>197,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>184,36%</t>
+          <t>328,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>-2,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>143,88%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>74,76%</t>
+          <t>209,95%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>148,41%</t>
+          <t>44,46%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>48,67%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>77,2%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>105,46%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>240,33%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>45,33%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 419,27</t>
+          <t>-25,88; 459,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 506,92</t>
+          <t>25,76; 527,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,49; 518,59</t>
+          <t>37,17; 493,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 565,81</t>
+          <t>94,47; 917,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 98,15</t>
+          <t>-53,39; 82,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 120,0</t>
+          <t>-32,14; 196,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 156,63</t>
+          <t>-18,64; 138,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,01; 329,06</t>
+          <t>-10,49; 125,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 109,83</t>
+          <t>12,67; 185,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,44; 163,45</t>
+          <t>98,77; 364,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,46; 196,71</t>
+          <t>-25,68; 65,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,27; 295,62</t>
+          <t>-12,16; 128,34</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 130,3</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24,88; 180,31</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>37,47; 207,42</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>135,12; 393,95</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-24,97; 46,61</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 110,62</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,35</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0,8</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,86</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,91</t>
+          <t>-3,9; 4,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,91</t>
+          <t>-3,36; 4,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,07</t>
+          <t>-3,89; 3,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-2,84; 5,18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 7,51</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 11,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 8,19</t>
+          <t>-6,15; 5,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-1,5; 10,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 7,93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 17,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 3,82</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 5,82</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 4,25</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 3,57</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 6,21</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 4,3</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 10,13</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,37%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,06%</t>
+          <t>-12,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>55,79%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,3%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>-3,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>63,4%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>116,5%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>48,14%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>16,88%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,13%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>50,62%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>102,44%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1417,7 +1795,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-99,95; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1427,45 +1805,75 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-80,12; 605,11</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-56,85; 184,73</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 300,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,31; 199,71</t>
+          <t>-62,72; 120,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-24,44; 235,33</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-44,75; 177,87</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 374,68</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-57,03; 121,21</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-22,41; 180,72</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-44,5; 132,23</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-51,45; 123,68</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-24,34; 189,97</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-41,62; 144,91</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 315,12</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,7</t>
+          <t>-0,9; 1,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,95</t>
+          <t>0,18; 2,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,17</t>
+          <t>0,22; 3,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,03</t>
+          <t>2,14; 5,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,31</t>
+          <t>-0,48; 4,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,92</t>
+          <t>-0,6; 4,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,63</t>
+          <t>-0,96; 3,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 9,43</t>
+          <t>0,17; 3,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,7</t>
+          <t>0,89; 4,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,03</t>
+          <t>6,19; 11,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,31</t>
+          <t>-0,12; 6,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,02</t>
+          <t>1,93; 8,04</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 1,85</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 3,0</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 3,42</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 7,9</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 4,5</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 5,43</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>65,81%</t>
+          <t>68,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>70,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>177,29%</t>
+          <t>169,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>108,25%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>137,05%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>124,25%</t>
+          <t>38,01%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>43,83%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>51,18%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>145,4%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>35,49%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 99,75</t>
+          <t>-34,03; 102,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,21; 167,16</t>
+          <t>6,11; 173,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,16; 181,14</t>
+          <t>4,26; 178,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,71; 342,37</t>
+          <t>73,59; 329,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 42,46</t>
+          <t>-8,07; 87,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,86; 70,55</t>
+          <t>-8,05; 86,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,85; 86,77</t>
+          <t>-14,28; 56,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>59,2; 168,29</t>
+          <t>2,26; 72,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 44,82</t>
+          <t>11,38; 87,44</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,35; 78,08</t>
+          <t>86,37; 205,94</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,24; 86,6</t>
+          <t>-1,04; 46,5</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>79,89; 183,0</t>
+          <t>13,12; 70,25</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 47,57</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 80,09</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 89,73</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>96,63; 207,37</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 47,63</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 64,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
